--- a/Stock Selection/tickers_used.xlsx
+++ b/Stock Selection/tickers_used.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Capital-Insights\Stock Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E43CAA-C7DA-4C66-BD85-44081D26D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFF264-7B3A-406B-B716-00333B915382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock Selection/tickers_used.xlsx
+++ b/Stock Selection/tickers_used.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Capital-Insights\Stock Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFF264-7B3A-406B-B716-00333B915382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F41CBE-C1B1-4EE7-B61B-6EB04F2A5C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$N$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="87">
   <si>
     <t>Chapter</t>
   </si>
@@ -279,6 +282,24 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>INTERNAL_ACCOUNT</t>
+  </si>
+  <si>
+    <t>Energy &amp; Utilities</t>
+  </si>
+  <si>
+    <t>CFDs</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Consumer Def &amp; Cyclical</t>
   </si>
 </sst>
 </file>
@@ -287,7 +308,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -355,7 +376,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -372,6 +393,517 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Positions"/>
+      <sheetName val="PVT"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Chapter</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Ticker</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>TSM</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ETF</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>BND</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ETF</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>VWO</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>APA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>FSLR</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ETF</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>VBTC.DE</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>MO</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>PEP</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>YPF</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>MSFT</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>ING</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>ACI</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>MA</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>NEE</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>KMB</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>INGR</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ETF</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>BOTZ.UK</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>ETF</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>BATT.NL</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>GOOGL</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Healthcare</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>AGIO</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>BCS</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>DAR</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Consumer Cyclical</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>YUM</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>AAPL</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>EXC</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>FOREX</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>GC=F</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>ASML</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Consumer Cyclical</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>MC.PA</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Healthcare</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>HCA</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>QCOM</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>AMAT</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>FOREX</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>USDJPY=X</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>NVDA</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Industrials</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>MMM</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>DUK</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Consumer Defensive</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>WMT</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>PLTR</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Consumer Cyclical</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>APTV</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Consumer Cyclical</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>YUMC</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>PCG</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>JKS</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>FOREX</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>USDMXN=X</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Energy &amp; Utilities</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>SWI.US</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>CSIQ</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>MAXN</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>BBVA.ES</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Financial Services</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CIB</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>AEP</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>AVGO</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>FLOA.UK</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>GILD</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>LEVI</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>MC.FR</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>PANW</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>SDIA.UK</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>SHELL.NL</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>SMFG</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>SQM</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>MISC</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>VHYD.UK</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,26 +1191,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -726,6 +1260,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C2,[1]Positions!$C:$C,0),1)</f>
+        <v>Healthcare</v>
+      </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
@@ -745,7 +1283,7 @@
         <v>-4.7993420000000002</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/G2*100</f>
+        <f t="shared" ref="I2:I33" si="0">H2/G2*100</f>
         <v>-189.80262645336572</v>
       </c>
       <c r="J2">
@@ -765,6 +1303,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" t="s">
         <v>41</v>
       </c>
@@ -784,7 +1325,7 @@
         <v>26.802778</v>
       </c>
       <c r="I3" s="2">
-        <f>H3/G3*100</f>
+        <f t="shared" si="0"/>
         <v>24.583334571544597</v>
       </c>
       <c r="J3">
@@ -804,6 +1345,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
@@ -823,7 +1367,7 @@
         <v>37.051864999999999</v>
       </c>
       <c r="I4" s="2">
-        <f>H4/G4*100</f>
+        <f t="shared" si="0"/>
         <v>35.008105787375342</v>
       </c>
       <c r="J4">
@@ -843,6 +1387,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -862,7 +1409,7 @@
         <v>11.789298</v>
       </c>
       <c r="I5" s="2">
-        <f>H5/G5*100</f>
+        <f t="shared" si="0"/>
         <v>35.78595555283578</v>
       </c>
       <c r="J5">
@@ -882,6 +1429,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
@@ -901,7 +1451,7 @@
         <v>7.8115186999999997</v>
       </c>
       <c r="I6" s="2">
-        <f>H6/G6*100</f>
+        <f t="shared" si="0"/>
         <v>51.308905671645199</v>
       </c>
       <c r="J6">
@@ -921,6 +1471,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C7,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C7" t="s">
         <v>72</v>
       </c>
@@ -940,7 +1494,7 @@
         <v>8.5551290000000009</v>
       </c>
       <c r="I7" s="2">
-        <f>H7/G7*100</f>
+        <f t="shared" si="0"/>
         <v>56.423774608523516</v>
       </c>
       <c r="J7">
@@ -960,6 +1514,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
@@ -979,7 +1536,7 @@
         <v>8.4481940000000009</v>
       </c>
       <c r="I8" s="2">
-        <f>H8/G8*100</f>
+        <f t="shared" si="0"/>
         <v>59.12839827380958</v>
       </c>
       <c r="J8">
@@ -999,6 +1556,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
@@ -1018,7 +1578,7 @@
         <v>12.6214285</v>
       </c>
       <c r="I9" s="2">
-        <f>H9/G9*100</f>
+        <f t="shared" si="0"/>
         <v>65.000001029994365</v>
       </c>
       <c r="J9">
@@ -1038,6 +1598,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -1057,7 +1620,7 @@
         <v>13.795424000000001</v>
       </c>
       <c r="I10" s="2">
-        <f>H10/G10*100</f>
+        <f t="shared" si="0"/>
         <v>65.410501222965706</v>
       </c>
       <c r="J10">
@@ -1077,6 +1640,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C11,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -1096,7 +1663,7 @@
         <v>32.864080000000001</v>
       </c>
       <c r="I11" s="2">
-        <f>H11/G11*100</f>
+        <f t="shared" si="0"/>
         <v>71.601948516441922</v>
       </c>
       <c r="J11">
@@ -1116,6 +1683,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C12,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
@@ -1135,7 +1706,7 @@
         <v>20.380434000000001</v>
       </c>
       <c r="I12" s="2">
-        <f>H12/G12*100</f>
+        <f t="shared" si="0"/>
         <v>72.554344111304403</v>
       </c>
       <c r="J12">
@@ -1155,6 +1726,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1748,7 @@
         <v>9.7356829999999999</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/G13*100</f>
+        <f t="shared" si="0"/>
         <v>73.127754726812441</v>
       </c>
       <c r="J13">
@@ -1194,6 +1768,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C14,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1791,7 @@
         <v>17.086689</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/G14*100</f>
+        <f t="shared" si="0"/>
         <v>74.819406826796325</v>
       </c>
       <c r="J14">
@@ -1233,6 +1811,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C15,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
@@ -1252,7 +1834,7 @@
         <v>25.42238</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/G15*100</f>
+        <f t="shared" si="0"/>
         <v>77.256314398292872</v>
       </c>
       <c r="J15">
@@ -1272,6 +1854,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1291,7 +1876,7 @@
         <v>15.293162000000001</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/G16*100</f>
+        <f t="shared" si="0"/>
         <v>79.02664471396254</v>
       </c>
       <c r="J16">
@@ -1310,7 +1895,11 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C17,[1]Positions!$C:$C,0),1)</f>
+        <v>Financial Services</v>
+      </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1919,7 @@
         <v>28.840443</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/G17*100</f>
+        <f t="shared" si="0"/>
         <v>79.304896658425122</v>
       </c>
       <c r="J17">
@@ -1349,7 +1938,11 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C18,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -1369,7 +1962,7 @@
         <v>12.469338</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/G18*100</f>
+        <f t="shared" si="0"/>
         <v>80.049059132882078</v>
       </c>
       <c r="J18">
@@ -1388,7 +1981,10 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +2004,7 @@
         <v>24.353619999999999</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/G19*100</f>
+        <f t="shared" si="0"/>
         <v>82.401321744049795</v>
       </c>
       <c r="J19">
@@ -1427,7 +2023,10 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1447,7 +2046,7 @@
         <v>12.674168</v>
       </c>
       <c r="I20" s="2">
-        <f>H20/G20*100</f>
+        <f t="shared" si="0"/>
         <v>85.328534065252228</v>
       </c>
       <c r="J20">
@@ -1466,7 +2065,10 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" t="s">
         <v>50</v>
       </c>
@@ -1486,7 +2088,7 @@
         <v>17.322104</v>
       </c>
       <c r="I21" s="2">
-        <f>H21/G21*100</f>
+        <f t="shared" si="0"/>
         <v>86.318328143318453</v>
       </c>
       <c r="J21">
@@ -1505,7 +2107,11 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C22,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -1525,7 +2131,7 @@
         <v>30.385952</v>
       </c>
       <c r="I22" s="2">
-        <f>H22/G22*100</f>
+        <f t="shared" si="0"/>
         <v>86.889633034697994</v>
       </c>
       <c r="J22">
@@ -1544,7 +2150,11 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C23,[1]Positions!$C:$C,0),1)</f>
+        <v>Financial Services</v>
+      </c>
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -1564,7 +2174,7 @@
         <v>35.609282999999998</v>
       </c>
       <c r="I23" s="2">
-        <f>H23/G23*100</f>
+        <f t="shared" si="0"/>
         <v>87.240542969025242</v>
       </c>
       <c r="J23">
@@ -1583,7 +2193,10 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
       <c r="C24" t="s">
         <v>59</v>
       </c>
@@ -1603,7 +2216,7 @@
         <v>17.494059</v>
       </c>
       <c r="I24" s="2">
-        <f>H24/G24*100</f>
+        <f t="shared" si="0"/>
         <v>87.945672138895986</v>
       </c>
       <c r="J24">
@@ -1622,7 +2235,10 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -1642,7 +2258,7 @@
         <v>36.117645000000003</v>
       </c>
       <c r="I25" s="2">
-        <f>H25/G25*100</f>
+        <f t="shared" si="0"/>
         <v>90.441169842163376</v>
       </c>
       <c r="J25">
@@ -1661,7 +2277,11 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C26,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -1681,7 +2301,7 @@
         <v>28.018723999999999</v>
       </c>
       <c r="I26" s="2">
-        <f>H26/G26*100</f>
+        <f t="shared" si="0"/>
         <v>91.348305335150243</v>
       </c>
       <c r="J26">
@@ -1700,7 +2320,11 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C27,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +2344,7 @@
         <v>7.6340430000000001</v>
       </c>
       <c r="I27" s="2">
-        <f>H27/G27*100</f>
+        <f t="shared" si="0"/>
         <v>91.489367566830353</v>
       </c>
       <c r="J27">
@@ -1739,7 +2363,11 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C28,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +2387,7 @@
         <v>18.337540000000001</v>
       </c>
       <c r="I28" s="2">
-        <f>H28/G28*100</f>
+        <f t="shared" si="0"/>
         <v>95.110409783765419</v>
       </c>
       <c r="J28">
@@ -1778,7 +2406,10 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -1798,7 +2429,7 @@
         <v>18.226738000000001</v>
       </c>
       <c r="I29" s="2">
-        <f>H29/G29*100</f>
+        <f t="shared" si="0"/>
         <v>96.068158932445883</v>
       </c>
       <c r="J29">
@@ -1817,7 +2448,11 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C30,[1]Positions!$C:$C,0),1)</f>
+        <v>Financial Services</v>
+      </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
@@ -1837,7 +2472,7 @@
         <v>9.6666659999999993</v>
       </c>
       <c r="I30" s="2">
-        <f>H30/G30*100</f>
+        <f t="shared" si="0"/>
         <v>100.91323526410466</v>
       </c>
       <c r="J30">
@@ -1856,7 +2491,11 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C31,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C31" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +2515,7 @@
         <v>18.547989999999999</v>
       </c>
       <c r="I31" s="2">
-        <f>H31/G31*100</f>
+        <f t="shared" si="0"/>
         <v>101.22766719328951</v>
       </c>
       <c r="J31">
@@ -1895,7 +2534,11 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C32,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -1915,7 +2558,7 @@
         <v>6.3963637000000002</v>
       </c>
       <c r="I32" s="2">
-        <f>H32/G32*100</f>
+        <f t="shared" si="0"/>
         <v>101.4545383890646</v>
       </c>
       <c r="J32">
@@ -1934,7 +2577,11 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C33,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
@@ -1954,7 +2601,7 @@
         <v>24.037127999999999</v>
       </c>
       <c r="I33" s="2">
-        <f>H33/G33*100</f>
+        <f t="shared" si="0"/>
         <v>101.73267122450194</v>
       </c>
       <c r="J33">
@@ -1973,7 +2620,11 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C34,[1]Positions!$C:$C,0),1)</f>
+        <v>Energy &amp; Utilities</v>
+      </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +2644,7 @@
         <v>16.764257000000001</v>
       </c>
       <c r="I34" s="2">
-        <f>H34/G34*100</f>
+        <f t="shared" ref="I34:I55" si="1">H34/G34*100</f>
         <v>102.28135666537628</v>
       </c>
       <c r="J34">
@@ -2012,7 +2663,11 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C35,[1]Positions!$C:$C,0),1)</f>
+        <v>Financial Services</v>
+      </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2687,7 @@
         <v>7.0423726999999996</v>
       </c>
       <c r="I35" s="2">
-        <f>H35/G35*100</f>
+        <f t="shared" si="1"/>
         <v>105.4237309702422</v>
       </c>
       <c r="J35">
@@ -2051,7 +2706,10 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2729,7 @@
         <v>11.007477</v>
       </c>
       <c r="I36" s="2">
-        <f>H36/G36*100</f>
+        <f t="shared" si="1"/>
         <v>113.08411935050798</v>
       </c>
       <c r="J36">
@@ -2090,7 +2748,10 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
@@ -2110,7 +2771,7 @@
         <v>14.255319</v>
       </c>
       <c r="I37" s="2">
-        <f>H37/G37*100</f>
+        <f t="shared" si="1"/>
         <v>188.29786960026996</v>
       </c>
       <c r="J37">
@@ -2129,7 +2790,11 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C38,[1]Positions!$C:$C,0),1)</f>
+        <v>Financial Services</v>
+      </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2814,7 @@
         <v>16.590477</v>
       </c>
       <c r="I38" s="2">
-        <f>H38/G38*100</f>
+        <f t="shared" si="1"/>
         <v>189.52381539882992</v>
       </c>
       <c r="J38">
@@ -2168,7 +2833,10 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
       <c r="C39" t="s">
         <v>60</v>
       </c>
@@ -2188,7 +2856,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="2">
-        <f>H39/G39*100</f>
+        <f t="shared" si="1"/>
         <v>299.99999142857166</v>
       </c>
       <c r="J39">
@@ -2207,7 +2875,10 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
@@ -2224,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="e">
-        <f>H40/G40*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J40" t="s">
@@ -2243,7 +2914,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
@@ -2263,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="e">
-        <f>H41/G41*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J41" t="s">
@@ -2282,7 +2956,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C42,[1]Positions!$C:$C,0),1)</f>
+        <v>Technology</v>
+      </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
@@ -2302,7 +2980,7 @@
         <v>-0.67934779999999995</v>
       </c>
       <c r="I42" s="2" t="e">
-        <f>H42/G42*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J42">
@@ -2321,7 +2999,10 @@
         <v>-5.52</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -2341,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="e">
-        <f>H43/G43*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J43" t="s">
@@ -2360,7 +3041,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -2380,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="e">
-        <f>H44/G44*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J44" t="s">
@@ -2399,7 +3083,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -2419,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="e">
-        <f>H45/G45*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J45" t="s">
@@ -2438,7 +3125,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
@@ -2458,7 +3148,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="e">
-        <f>H46/G46*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J46" t="s">
@@ -2477,7 +3167,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C47,[1]Positions!$C:$C,0),1)</f>
+        <v>ETF</v>
+      </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -2497,7 +3191,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="e">
-        <f>H47/G47*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J47" t="s">
@@ -2516,7 +3210,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
@@ -2536,7 +3233,7 @@
         <v>8.7512570000000007</v>
       </c>
       <c r="I48" s="2" t="e">
-        <f>H48/G48*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J48">
@@ -2555,7 +3252,10 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
       <c r="C49" t="s">
         <v>55</v>
       </c>
@@ -2575,7 +3275,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="e">
-        <f>H49/G49*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J49" t="s">
@@ -2594,7 +3294,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C50,[1]Positions!$C:$C,0),1)</f>
+        <v>ETF</v>
+      </c>
       <c r="C50" t="s">
         <v>56</v>
       </c>
@@ -2614,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="e">
-        <f>H50/G50*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J50" t="s">
@@ -2633,7 +3337,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
@@ -2653,7 +3360,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="2" t="e">
-        <f>H51/G51*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J51" t="s">
@@ -2672,7 +3379,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
       <c r="C52" t="s">
         <v>69</v>
       </c>
@@ -2692,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="e">
-        <f>H52/G52*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J52" t="s">
@@ -2711,7 +3421,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
       <c r="C53" t="s">
         <v>75</v>
       </c>
@@ -2731,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="e">
-        <f>H53/G53*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J53" t="s">
@@ -2750,7 +3463,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
       <c r="C54" t="s">
         <v>77</v>
       </c>
@@ -2770,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="2" t="e">
-        <f>H54/G54*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J54" t="s">
@@ -2789,7 +3505,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>INDEX([1]Positions!$A:$A,MATCH(C55,[1]Positions!$C:$C,0),1)</f>
+        <v>ETF</v>
+      </c>
       <c r="C55" t="s">
         <v>78</v>
       </c>
@@ -2809,7 +3529,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="e">
-        <f>H55/G55*100</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J55" t="s">
@@ -2828,12 +3548,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:N55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:N55">
-      <sortCondition ref="I1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Stock Selection/tickers_used.xlsx
+++ b/Stock Selection/tickers_used.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Capital-Insights\Stock Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F41CBE-C1B1-4EE7-B61B-6EB04F2A5C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC77EB-F121-458D-A81E-3903B051D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="88">
   <si>
     <t>Chapter</t>
   </si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Consumer Def &amp; Cyclical</t>
+  </si>
+  <si>
+    <t>Volatility %</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +330,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -377,6 +382,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -393,517 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Positions"/>
-      <sheetName val="PVT"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Chapter</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Ticker</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>TSM</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>ETF</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>BND</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ETF</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>VWO</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>APA</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>FSLR</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>ETF</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>VBTC.DE</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>MO</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>PEP</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>YPF</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>MSFT</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>ING</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>ACI</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>MA</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>NEE</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>KMB</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>INGR</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>ETF</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>BOTZ.UK</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>ETF</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>BATT.NL</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>GOOGL</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Healthcare</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>AGIO</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>BCS</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>DAR</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Consumer Cyclical</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>YUM</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>AAPL</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>EXC</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>FOREX</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>GC=F</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>ASML</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Consumer Cyclical</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>MC.PA</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Healthcare</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>HCA</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>QCOM</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>AMAT</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>FOREX</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>USDJPY=X</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>NVDA</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Industrials</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>MMM</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>DUK</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Consumer Defensive</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>WMT</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>PLTR</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Consumer Cyclical</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>APTV</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Consumer Cyclical</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>YUMC</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>PCG</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>JKS</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>FOREX</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>USDMXN=X</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Energy &amp; Utilities</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>SWI.US</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>CSIQ</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Technology</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>MAXN</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>BBVA.ES</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Financial Services</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>CIB</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>AEP</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>AVGO</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>FLOA.UK</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>GILD</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>LEVI</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>MC.FR</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>PANW</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>SDIA.UK</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>SHELL.NL</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>SMFG</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>SQM</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>MISC</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>VHYD.UK</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1191,10 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,9 +711,10 @@
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,11 +757,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C2,[1]Positions!$C:$C,0),1)</f>
-        <v>Healthcare</v>
+      <c r="O1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1301,8 +802,11 @@
       <c r="N2">
         <v>-6.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>61.33541980833278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1343,8 +847,11 @@
       <c r="N3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>36.271154159365317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1385,8 +892,11 @@
       <c r="N4">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>63.32097662067401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1427,8 +937,11 @@
       <c r="N5">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>43.11862026902876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1469,11 +982,13 @@
       <c r="N6">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C7,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O6">
+        <v>21.281624339779711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -1512,8 +1027,11 @@
       <c r="N7">
         <v>20.86</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>64.094430326598768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1554,8 +1072,11 @@
       <c r="N8">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>35.742191874886551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1596,8 +1117,11 @@
       <c r="N9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>43.346729684871782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1638,11 +1162,13 @@
       <c r="N10">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C11,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O10">
+        <v>27.19158640499731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -1681,11 +1207,13 @@
       <c r="N11">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C12,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O11">
+        <v>60.099153314470414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -1724,8 +1252,11 @@
       <c r="N12">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>28.66117458258277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1766,11 +1297,13 @@
       <c r="N13">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C14,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O13">
+        <v>24.889373824291859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1809,11 +1342,13 @@
       <c r="N14">
         <v>9.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C15,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O14">
+        <v>48.896490159607993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -1852,8 +1387,11 @@
       <c r="N15">
         <v>8.31</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>33.002872737392643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1894,11 +1432,13 @@
       <c r="N16">
         <v>8.6300000000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C17,[1]Positions!$C:$C,0),1)</f>
-        <v>Financial Services</v>
+      <c r="O16">
+        <v>19.797213187791819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1937,11 +1477,13 @@
       <c r="N17">
         <v>12.66</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C18,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O17">
+        <v>21.96092733903993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -1980,8 +1522,11 @@
       <c r="N18">
         <v>12.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>43.720426511664357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -2022,8 +1567,11 @@
       <c r="N19">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>22.141678940415019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -2064,8 +1612,11 @@
       <c r="N20">
         <v>11.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>25.733437233184841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2106,11 +1657,13 @@
       <c r="N21">
         <v>29.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C22,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O21">
+        <v>31.991503187925019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -2149,11 +1702,13 @@
       <c r="N22">
         <v>14.95</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C23,[1]Positions!$C:$C,0),1)</f>
-        <v>Financial Services</v>
+      <c r="O22">
+        <v>25.77121252311759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -2192,8 +1747,11 @@
       <c r="N23">
         <v>16.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>21.155492483519271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2234,8 +1792,11 @@
       <c r="N24">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>19.774210651342681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2276,11 +1837,13 @@
       <c r="N25">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C26,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O25">
+        <v>24.104253796858501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2319,11 +1882,13 @@
       <c r="N26">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C27,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O26">
+        <v>48.859473123166751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -2362,11 +1927,13 @@
       <c r="N27">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C28,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O27">
+        <v>49.808519958788843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -2405,8 +1972,11 @@
       <c r="N28">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>18.461808200874671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2447,11 +2017,13 @@
       <c r="N29">
         <v>7.63</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C30,[1]Positions!$C:$C,0),1)</f>
-        <v>Financial Services</v>
+      <c r="O29">
+        <v>19.699410478973871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -2490,11 +2062,13 @@
       <c r="N30">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C31,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O30">
+        <v>28.00837997074737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -2533,11 +2107,13 @@
       <c r="N31">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C32,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O31">
+        <v>31.31891019922525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -2576,11 +2152,13 @@
       <c r="N32">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C33,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O32">
+        <v>51.326312339869567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -2619,11 +2197,13 @@
       <c r="N33">
         <v>8.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C34,[1]Positions!$C:$C,0),1)</f>
-        <v>Energy &amp; Utilities</v>
+      <c r="O33">
+        <v>46.587767069441902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2662,11 +2242,13 @@
       <c r="N34">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C35,[1]Positions!$C:$C,0),1)</f>
-        <v>Financial Services</v>
+      <c r="O34">
+        <v>19.91362800714478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -2705,8 +2287,11 @@
       <c r="N35">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>31.777443591983879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2747,8 +2332,11 @@
       <c r="N36">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>19.421716931889542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2789,11 +2377,13 @@
       <c r="N37">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C38,[1]Positions!$C:$C,0),1)</f>
-        <v>Financial Services</v>
+      <c r="O37">
+        <v>30.43409405600454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2832,8 +2422,11 @@
       <c r="N38">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>36.212269422141411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2874,8 +2467,11 @@
       <c r="N39">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>36.518340063380883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2913,8 +2509,11 @@
       <c r="N40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2955,11 +2554,13 @@
       <c r="N41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C42,[1]Positions!$C:$C,0),1)</f>
-        <v>Technology</v>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -2998,8 +2599,11 @@
       <c r="N42">
         <v>-5.52</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>173.19889224584509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -3040,8 +2644,11 @@
       <c r="N43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3082,8 +2689,11 @@
       <c r="N44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>2.6935631233785231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -3124,8 +2734,11 @@
       <c r="N45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>2.719329172670331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3166,11 +2779,13 @@
       <c r="N46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C47,[1]Positions!$C:$C,0),1)</f>
-        <v>ETF</v>
+      <c r="O46">
+        <v>13.957181852203981</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -3209,8 +2824,11 @@
       <c r="N47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>18.641374928448201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3251,8 +2869,11 @@
       <c r="N48">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>43.576472690873011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3293,11 +2914,13 @@
       <c r="N49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C50,[1]Positions!$C:$C,0),1)</f>
-        <v>ETF</v>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -3336,8 +2959,11 @@
       <c r="N50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>49.077352461563898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3378,8 +3004,11 @@
       <c r="N51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>25.048084791536901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3420,8 +3049,11 @@
       <c r="N52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3462,8 +3094,11 @@
       <c r="N53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3504,11 +3139,13 @@
       <c r="N54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>INDEX([1]Positions!$A:$A,MATCH(C55,[1]Positions!$C:$C,0),1)</f>
-        <v>ETF</v>
+      <c r="O54">
+        <v>25.89146791509063</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>78</v>
@@ -3547,17 +3184,30 @@
       <c r="N55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>5.3040143477378168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
       </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O56" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="N/A"/>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Stock Selection/tickers_used.xlsx
+++ b/Stock Selection/tickers_used.xlsx
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30.11000061035156</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6091855</v>
+        <v>2.5641248</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.952303</v>
+        <v>-4.8667765</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         <v>-6.08</v>
       </c>
       <c r="O2" t="n">
-        <v>61.24364869327829</v>
+        <v>61.22638319243585</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181.2599945068359</v>
+        <v>186.1399993896484</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>102.40678</v>
+        <v>106.97701</v>
       </c>
       <c r="H3" t="n">
-        <v>25.175</v>
+        <v>25.852777</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>16.341</v>
+        <v>16.079001</v>
       </c>
       <c r="K3" t="n">
         <v>1237799936</v>
@@ -611,13 +611,13 @@
         <v>13.94751334966173</v>
       </c>
       <c r="M3" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
         <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>36.67322868387564</v>
+        <v>36.75701789208141</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>229.7299957275391</v>
+        <v>230.5299987792969</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" t="n">
-        <v>106.85116</v>
+        <v>106.726845</v>
       </c>
       <c r="H4" t="n">
-        <v>37.233387</v>
+        <v>37.363045</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,13 +664,13 @@
         <v>19.06691813498404</v>
       </c>
       <c r="M4" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N4" t="n">
         <v>6.17</v>
       </c>
       <c r="O4" t="n">
-        <v>63.30612860815322</v>
+        <v>63.30582014000685</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31.5</v>
+        <v>31.70999908447266</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>29.43925</v>
+        <v>29.635511</v>
       </c>
       <c r="H5" t="n">
-        <v>10.535117</v>
+        <v>10.6053505</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>2.99</v>
       </c>
       <c r="O5" t="n">
-        <v>43.72253101387187</v>
+        <v>43.60653657800798</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29.53499984741211</v>
+        <v>29.15500068664551</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>430.9999999999999</v>
+        <v>433</v>
       </c>
       <c r="G6" t="n">
-        <v>15.146153</v>
+        <v>15.028351</v>
       </c>
       <c r="H6" t="n">
-        <v>7.7316756</v>
+        <v>7.6321993</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -772,13 +772,13 @@
         <v>4.808783792448772</v>
       </c>
       <c r="M6" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N6" t="n">
         <v>3.82</v>
       </c>
       <c r="O6" t="n">
-        <v>21.29803693208354</v>
+        <v>21.30939949843741</v>
       </c>
     </row>
     <row r="7">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>163.3699951171875</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>13.880203</v>
+        <v>13.295069</v>
       </c>
       <c r="H7" t="n">
-        <v>7.831735</v>
+        <v>7.4952064</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>29.71664355494486</v>
       </c>
       <c r="M7" t="n">
-        <v>11.77</v>
+        <v>11.76</v>
       </c>
       <c r="N7" t="n">
         <v>20.86</v>
       </c>
       <c r="O7" t="n">
-        <v>61.24452973050938</v>
+        <v>61.38629511936068</v>
       </c>
     </row>
     <row r="8">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3319</v>
+        <v>3295.10009765625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>18.46020609300934</v>
+        <v>18.39477882038925</v>
       </c>
     </row>
     <row r="9">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.31999969482422</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G9" t="n">
-        <v>19.244444</v>
+        <v>19.922222</v>
       </c>
       <c r="H9" t="n">
-        <v>12.3714285</v>
+        <v>12.807143</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>1.4</v>
       </c>
       <c r="O9" t="n">
-        <v>43.4469301504744</v>
+        <v>43.59412352669352</v>
       </c>
     </row>
     <row r="10">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>107.7200012207031</v>
+        <v>106.7399978637695</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G10" t="n">
-        <v>22.63025</v>
+        <v>22.424368</v>
       </c>
       <c r="H10" t="n">
-        <v>14.497982</v>
+        <v>14.366083</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>7.43</v>
       </c>
       <c r="O10" t="n">
-        <v>27.53701817964089</v>
+        <v>27.43339195549989</v>
       </c>
     </row>
     <row r="11">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>131.8000030517578</v>
+        <v>132.8300018310547</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>44.829933</v>
+        <v>45.18027</v>
       </c>
       <c r="H11" t="n">
-        <v>31.990294</v>
+        <v>32.24029</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>4.12</v>
       </c>
       <c r="O11" t="n">
-        <v>60.09874492613523</v>
+        <v>59.39237561101923</v>
       </c>
     </row>
     <row r="12">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71.54000091552734</v>
+        <v>66.94000244140625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G12" t="n">
-        <v>26.794006</v>
+        <v>25.071161</v>
       </c>
       <c r="H12" t="n">
-        <v>19.440218</v>
+        <v>18.190218</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>3.68</v>
       </c>
       <c r="O12" t="n">
-        <v>28.92721788794154</v>
+        <v>29.61356575774759</v>
       </c>
     </row>
     <row r="13">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22.04000091552734</v>
+        <v>21.82999992370605</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" t="n">
-        <v>13.439025</v>
+        <v>13.310976</v>
       </c>
       <c r="H13" t="n">
-        <v>9.709251</v>
+        <v>9.61674</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>2.27</v>
       </c>
       <c r="O13" t="n">
-        <v>24.91249998277564</v>
+        <v>24.92355251317951</v>
       </c>
     </row>
     <row r="14">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>162.2299957275391</v>
+        <v>160.5200042724609</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" t="n">
-        <v>19.736008</v>
+        <v>19.504253</v>
       </c>
       <c r="H14" t="n">
-        <v>16.742002</v>
+        <v>16.565533</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1214,13 +1214,13 @@
         <v>24.0592407825053</v>
       </c>
       <c r="M14" t="n">
-        <v>8.220000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="N14" t="n">
         <v>9.69</v>
       </c>
       <c r="O14" t="n">
-        <v>48.79067897060854</v>
+        <v>48.8007355665701</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>202.0899963378906</v>
+        <v>201.3600006103516</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>31.527302</v>
+        <v>31.315708</v>
       </c>
       <c r="H15" t="n">
-        <v>24.318892</v>
+        <v>24.231047</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         <v>24.30126374578385</v>
       </c>
       <c r="M15" t="n">
-        <v>6.41</v>
+        <v>6.43</v>
       </c>
       <c r="N15" t="n">
         <v>8.31</v>
       </c>
       <c r="O15" t="n">
-        <v>33.10551407746099</v>
+        <v>33.0367356490213</v>
       </c>
     </row>
     <row r="16">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>130.1499938964844</v>
+        <v>130.1199951171875</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G16" t="n">
-        <v>19.139704</v>
+        <v>19.163475</v>
       </c>
       <c r="H16" t="n">
-        <v>15.081112</v>
+        <v>15.077636</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1320,13 +1320,13 @@
         <v>10.23786431925341</v>
       </c>
       <c r="M16" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="N16" t="n">
         <v>8.630000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>19.79032331843434</v>
+        <v>19.73737514407967</v>
       </c>
     </row>
     <row r="17">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>358.2999877929688</v>
+        <v>357.9700012207031</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17" t="n">
-        <v>36.046276</v>
+        <v>35.94076</v>
       </c>
       <c r="H17" t="n">
-        <v>28.301737</v>
+        <v>28.275671</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1373,13 +1373,13 @@
         <v>52.21020262359151</v>
       </c>
       <c r="M17" t="n">
-        <v>9.94</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="N17" t="n">
         <v>12.66</v>
       </c>
       <c r="O17" t="n">
-        <v>22.07503740717405</v>
+        <v>22.06752930638648</v>
       </c>
     </row>
     <row r="18">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>151.3099975585938</v>
+        <v>147.3699951171875</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G18" t="n">
-        <v>15.4397955</v>
+        <v>15.037754</v>
       </c>
       <c r="H18" t="n">
-        <v>12.372036</v>
+        <v>12.049877</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>12.23</v>
       </c>
       <c r="O18" t="n">
-        <v>43.66308089406136</v>
+        <v>43.73446423100517</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>146.4299926757812</v>
+        <v>145.5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G19" t="n">
-        <v>29.169321</v>
+        <v>28.984064</v>
       </c>
       <c r="H19" t="n">
-        <v>24.083881</v>
+        <v>23.930922</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>6.08</v>
       </c>
       <c r="O19" t="n">
-        <v>22.19312269574802</v>
+        <v>22.14752566186586</v>
       </c>
     </row>
     <row r="20">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>138.3500061035156</v>
+        <v>137.2400054931641</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G20" t="n">
-        <v>14.578505</v>
+        <v>14.476794</v>
       </c>
       <c r="H20" t="n">
-        <v>12.452746</v>
+        <v>12.352837</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         <v>8.531449605490121</v>
       </c>
       <c r="M20" t="n">
-        <v>9.49</v>
+        <v>9.48</v>
       </c>
       <c r="N20" t="n">
         <v>11.11</v>
       </c>
       <c r="O20" t="n">
-        <v>25.78056988599686</v>
+        <v>25.78772306961873</v>
       </c>
     </row>
     <row r="21">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>493.6499938964844</v>
+        <v>485.1000061035156</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G21" t="n">
-        <v>19.636038</v>
+        <v>19.303621</v>
       </c>
       <c r="H21" t="n">
-        <v>16.96975</v>
+        <v>16.675835</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
         <v>14.81997561254024</v>
       </c>
       <c r="M21" t="n">
-        <v>25.14</v>
+        <v>25.13</v>
       </c>
       <c r="N21" t="n">
         <v>29.09</v>
       </c>
       <c r="O21" t="n">
-        <v>32.07439032437635</v>
+        <v>32.05364597582906</v>
       </c>
     </row>
     <row r="22">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>452.5700073242188</v>
+        <v>454.8599853515625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="n">
-        <v>35.028637</v>
+        <v>35.15147</v>
       </c>
       <c r="H22" t="n">
-        <v>30.272242</v>
+        <v>30.425417</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1638,13 +1638,13 @@
         <v>35.78941527246523</v>
       </c>
       <c r="M22" t="n">
-        <v>12.92</v>
+        <v>12.94</v>
       </c>
       <c r="N22" t="n">
         <v>14.95</v>
       </c>
       <c r="O22" t="n">
-        <v>25.77929734546117</v>
+        <v>25.76914785763375</v>
       </c>
     </row>
     <row r="23">
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>569.5399780273438</v>
+        <v>570.1400146484375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>39.995785</v>
+        <v>40.03792</v>
       </c>
       <c r="H23" t="n">
-        <v>34.77045</v>
+        <v>34.807083</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>16.38</v>
       </c>
       <c r="O23" t="n">
-        <v>21.27617073938768</v>
+        <v>21.23786806554582</v>
       </c>
     </row>
     <row r="24">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>102.9300003051758</v>
+        <v>101.8000030517578</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G24" t="n">
-        <v>19.870657</v>
+        <v>19.652512</v>
       </c>
       <c r="H24" t="n">
-        <v>17.475382</v>
+        <v>17.283533</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>5.89</v>
       </c>
       <c r="O24" t="n">
-        <v>19.75954155249902</v>
+        <v>19.63656342382134</v>
       </c>
     </row>
     <row r="25">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>96.43000030517578</v>
+        <v>95.93000030517578</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" t="n">
-        <v>41.209404</v>
+        <v>40.995728</v>
       </c>
       <c r="H25" t="n">
-        <v>35.452206</v>
+        <v>35.268383</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>2.72</v>
       </c>
       <c r="O25" t="n">
-        <v>24.10931668909541</v>
+        <v>24.10585750217275</v>
       </c>
     </row>
     <row r="26">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>737.1699829101562</v>
+        <v>740.7000122070312</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" t="n">
-        <v>29.748587</v>
+        <v>29.81884</v>
       </c>
       <c r="H26" t="n">
-        <v>27.609362</v>
+        <v>27.741573</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1850,13 +1850,13 @@
         <v>28.33459111814113</v>
       </c>
       <c r="M26" t="n">
-        <v>24.78</v>
+        <v>24.84</v>
       </c>
       <c r="N26" t="n">
         <v>26.7</v>
       </c>
       <c r="O26" t="n">
-        <v>48.83354285814041</v>
+        <v>48.81281226874375</v>
       </c>
     </row>
     <row r="27">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35.93000030517578</v>
+        <v>36.11999893188477</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.375292</v>
+        <v>8.41958</v>
       </c>
       <c r="H27" t="n">
-        <v>7.6446815</v>
+        <v>7.6851063</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>4.7</v>
       </c>
       <c r="O27" t="n">
-        <v>49.29121259546345</v>
+        <v>49.24282823027755</v>
       </c>
     </row>
     <row r="28">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>116.4400024414062</v>
+        <v>115.5699996948242</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G28" t="n">
-        <v>19.310116</v>
+        <v>19.165836</v>
       </c>
       <c r="H28" t="n">
-        <v>18.36593</v>
+        <v>18.228706</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>6.34</v>
       </c>
       <c r="O28" t="n">
-        <v>18.45071019226402</v>
+        <v>18.39261847220317</v>
       </c>
     </row>
     <row r="29">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>141.0700073242188</v>
+        <v>139.75</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G29" t="n">
-        <v>19.219347</v>
+        <v>19.039509</v>
       </c>
       <c r="H29" t="n">
-        <v>18.488861</v>
+        <v>18.315859</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>7.63</v>
       </c>
       <c r="O29" t="n">
-        <v>19.74161929616607</v>
+        <v>19.70362158554634</v>
       </c>
     </row>
     <row r="30">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21.44000053405762</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G30" t="n">
-        <v>9.701358000000001</v>
+        <v>9.692307</v>
       </c>
       <c r="H30" t="n">
-        <v>9.789954</v>
+        <v>9.780822000000001</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>2.19</v>
       </c>
       <c r="O30" t="n">
-        <v>28.01082483408559</v>
+        <v>27.99336906510643</v>
       </c>
     </row>
     <row r="31">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>168.5599975585938</v>
+        <v>170.8699951171875</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>18.833519</v>
+        <v>19.049051</v>
       </c>
       <c r="H31" t="n">
-        <v>18.8125</v>
+        <v>19.070312</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         <v>30.85681986086174</v>
       </c>
       <c r="M31" t="n">
-        <v>8.949999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="N31" t="n">
         <v>8.960000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>31.46470795765616</v>
+        <v>31.45256761195901</v>
       </c>
     </row>
     <row r="32">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16.70999908447266</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="G32" t="n">
-        <v>5.989247</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>6.076363</v>
+        <v>6.0872726</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>2.75</v>
       </c>
       <c r="O32" t="n">
-        <v>51.39994877018864</v>
+        <v>51.36675521455982</v>
       </c>
     </row>
     <row r="33">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>191.7599945068359</v>
+        <v>196.1900024414062</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G33" t="n">
-        <v>23.215494</v>
+        <v>23.751816</v>
       </c>
       <c r="H33" t="n">
-        <v>23.732674</v>
+        <v>24.280941</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>8.08</v>
       </c>
       <c r="O33" t="n">
-        <v>46.56531557768434</v>
+        <v>46.61454535543228</v>
       </c>
     </row>
     <row r="34">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>44.18999862670898</v>
+        <v>43.41999816894531</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         <v>362</v>
       </c>
       <c r="G34" t="n">
-        <v>16.42751</v>
+        <v>16.141262</v>
       </c>
       <c r="H34" t="n">
-        <v>16.80228</v>
+        <v>16.509504</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>2.63</v>
       </c>
       <c r="O34" t="n">
-        <v>19.85075520962009</v>
+        <v>19.79106172889798</v>
       </c>
     </row>
     <row r="35">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>41.22000122070312</v>
+        <v>40.52999877929688</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3615</v>
+        <v>3699</v>
       </c>
       <c r="G35" t="n">
-        <v>6.5846643</v>
+        <v>6.453821</v>
       </c>
       <c r="H35" t="n">
-        <v>6.9864407</v>
+        <v>6.869491</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2329,13 +2329,13 @@
         <v>28.10414600803143</v>
       </c>
       <c r="M35" t="n">
-        <v>6.26</v>
+        <v>6.28</v>
       </c>
       <c r="N35" t="n">
         <v>5.9</v>
       </c>
       <c r="O35" t="n">
-        <v>29.50284990277422</v>
+        <v>31.45776666107372</v>
       </c>
     </row>
     <row r="36">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>59.45000076293945</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2359,13 +2359,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G36" t="n">
-        <v>9.974833</v>
+        <v>9.949664</v>
       </c>
       <c r="H36" t="n">
-        <v>11.11215</v>
+        <v>11.084112</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>5.35</v>
       </c>
       <c r="O36" t="n">
-        <v>19.44542880000717</v>
+        <v>19.38169286990964</v>
       </c>
     </row>
     <row r="37">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13.69499969482422</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>508</v>
+        <v>511.0000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>7.737288</v>
+        <v>7.7288136</v>
       </c>
       <c r="H37" t="n">
-        <v>14.569149</v>
+        <v>14.553192</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>30.49425775288314</v>
+        <v>30.49543862431311</v>
       </c>
     </row>
     <row r="38">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17.56999969482422</v>
+        <v>17.63999938964844</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G38" t="n">
-        <v>8.785</v>
+        <v>8.776119</v>
       </c>
       <c r="H38" t="n">
-        <v>16.733334</v>
+        <v>16.8</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2488,13 +2488,13 @@
         <v>22.63225720298977</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="N38" t="n">
         <v>1.05</v>
       </c>
       <c r="O38" t="n">
-        <v>36.1163472482368</v>
+        <v>36.1143264628393</v>
       </c>
     </row>
     <row r="39">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14.90999984741211</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G39" t="n">
-        <v>12.024194</v>
+        <v>11.952</v>
       </c>
       <c r="H39" t="n">
-        <v>36.365852</v>
+        <v>36.439022</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2541,13 +2541,13 @@
         <v>22.5677633341305</v>
       </c>
       <c r="M39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="N39" t="n">
         <v>0.41</v>
       </c>
       <c r="O39" t="n">
-        <v>36.54967187223659</v>
+        <v>36.54050344340737</v>
       </c>
     </row>
     <row r="40">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20.8700008392334</v>
+        <v>20.28000068664551</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>177.7890192513747</v>
+        <v>177.8024829775367</v>
       </c>
     </row>
     <row r="42">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.289999961853027</v>
+        <v>2.980000019073486</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-0.5960145</v>
+        <v>-0.5398550600000001</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>-5.52</v>
       </c>
       <c r="O42" t="n">
-        <v>171.7233242462778</v>
+        <v>171.8701836452292</v>
       </c>
     </row>
     <row r="43">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19.36700057983398</v>
+        <v>19.3111400604248</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>14.91147985108235</v>
+        <v>14.90637516068672</v>
       </c>
     </row>
     <row r="44">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6.081999778747559</v>
+        <v>6.083000183105469</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2.699196798988814</v>
+        <v>2.696556219108885</v>
       </c>
     </row>
     <row r="45">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6.234000205993652</v>
+        <v>6.238999843597412</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>2.724331667611838</v>
+        <v>2.724978627439622</v>
       </c>
     </row>
     <row r="46">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>73.02249908447266</v>
+        <v>72.10250091552734</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>310</v>
       </c>
       <c r="G46" t="n">
-        <v>15.030599</v>
+        <v>14.84123</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>13.9843962716386</v>
+        <v>14.0264293643554</v>
       </c>
     </row>
     <row r="47">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>47.70999908447266</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>313</v>
       </c>
       <c r="G47" t="n">
-        <v>15.348452</v>
+        <v>15.313064</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>18.63353733126984</v>
+        <v>18.61754721399055</v>
       </c>
     </row>
     <row r="48">
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33.5</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.417085999999999</v>
+        <v>8.366834000000001</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>3.98</v>
       </c>
       <c r="O48" t="n">
-        <v>43.45834744743524</v>
+        <v>43.39116949378382</v>
       </c>
     </row>
     <row r="49">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>582.8599853515625</v>
+        <v>583.0900268554688</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>129</v>
       </c>
       <c r="G49" t="n">
-        <v>25.396086</v>
+        <v>25.406109</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>20.41657789130221</v>
+        <v>20.40129853735708</v>
       </c>
     </row>
     <row r="50">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50.97000122070312</v>
+        <v>52.53499984741211</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>48.90672253250317</v>
+        <v>48.9904298427395</v>
       </c>
     </row>
     <row r="51">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>15.67440032958984</v>
+        <v>15.25580024719238</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>25.17537476715769</v>
+        <v>25.30793852523775</v>
       </c>
     </row>
     <row r="52">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>144.0899963378906</v>
+        <v>144.0249938964844</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>11.11180463984989</v>
+        <v>11.10591593470484</v>
       </c>
     </row>
     <row r="53">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20.5049991607666</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>31.277058</v>
+        <v>30.750818</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>25.92411087810833</v>
+        <v>25.95911371020124</v>
       </c>
     </row>
     <row r="55">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>71.87999725341797</v>
+        <v>72.08000183105469</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>5.340293620892344</v>
+        <v>5.33763629272178</v>
       </c>
     </row>
     <row r="56">
